--- a/TestDataAndResults/SophieAutomation.xlsx
+++ b/TestDataAndResults/SophieAutomation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{7C7127D4-0F28-4F4B-A939-C56C6830780C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756726C-8FCC-4B16-BD4D-355CD0B4A303}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DriverSheet" r:id="rId1" sheetId="1"/>
-    <sheet name="RegressionCases" r:id="rId2" sheetId="4"/>
-    <sheet name="BatchDecisionOutputValidations" r:id="rId3" sheetId="5"/>
-    <sheet name="Keywords" r:id="rId4" sheetId="3"/>
+    <sheet name="DriverSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="CSVChkPostDefineBrain" sheetId="4" r:id="rId2"/>
+    <sheet name="BatchDecisionOutputValidations" sheetId="5" r:id="rId3"/>
+    <sheet name="Keywords" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="196">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -607,17 +607,22 @@
     <t>Choose obcc template</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>CSVChkPostDefineBrain</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -771,60 +776,60 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -841,10 +846,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -879,7 +884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -914,7 +919,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1008,21 +1013,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1039,7 +1044,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1091,115 +1096,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="70.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="70.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="14.25" r="1" s="6" spans="1:4">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="14.25">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-    </row>
-    <row customFormat="1" ht="14.25" r="2" s="6" spans="1:4">
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="14.25">
       <c r="A2" s="18" t="s">
         <v>187</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-    </row>
-    <row customFormat="1" ht="14.25" r="3" s="6" spans="1:4">
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="14.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-    </row>
-    <row customFormat="1" ht="14.25" r="4" s="2" spans="1:4">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
-  <dimension ref="A1:H80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.86328125" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1271,9 +1289,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -1294,9 +1310,7 @@
       <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
@@ -1317,9 +1331,7 @@
       <c r="F7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
@@ -1338,9 +1350,7 @@
         <v>70</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -1361,9 +1371,7 @@
       <c r="F9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
@@ -1382,9 +1390,7 @@
         <v>70</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
@@ -1405,9 +1411,7 @@
       <c r="F11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
@@ -1426,9 +1430,7 @@
         <v>85</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
@@ -1449,9 +1451,7 @@
       <c r="F13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
@@ -1470,9 +1470,7 @@
         <v>70</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
@@ -1493,9 +1491,7 @@
       <c r="F15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
@@ -1514,9 +1510,7 @@
         <v>92</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
@@ -1537,9 +1531,7 @@
       <c r="F17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
@@ -1560,9 +1552,7 @@
       <c r="F18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
@@ -1581,9 +1571,7 @@
         <v>70</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
@@ -1604,9 +1592,7 @@
       <c r="F20" s="8">
         <v>3000</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
@@ -1625,9 +1611,7 @@
         <v>70</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
@@ -1648,9 +1632,7 @@
       <c r="F22" s="8">
         <v>3000</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
@@ -1669,9 +1651,7 @@
         <v>70</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
@@ -1692,9 +1672,7 @@
       <c r="F24" s="8">
         <v>3000</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
@@ -1713,9 +1691,7 @@
         <v>70</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
@@ -1736,9 +1712,7 @@
       <c r="F26" s="8">
         <v>3000</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
@@ -1757,9 +1731,7 @@
         <v>70</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
@@ -1778,9 +1750,7 @@
         <v>70</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
@@ -1801,9 +1771,7 @@
       <c r="F29" s="8">
         <v>20000</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
@@ -1822,9 +1790,7 @@
         <v>70</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
@@ -1845,9 +1811,7 @@
       <c r="F31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
@@ -1866,9 +1830,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
@@ -1888,7 +1850,7 @@
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1908,9 +1870,7 @@
         <v>104</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
@@ -1929,9 +1889,7 @@
         <v>70</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
@@ -1952,9 +1910,7 @@
       <c r="F36" s="4">
         <v>30000</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
@@ -1973,9 +1929,7 @@
         <v>125</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
@@ -1994,9 +1948,7 @@
         <v>69</v>
       </c>
       <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
@@ -2015,9 +1967,7 @@
         <v>91</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
@@ -2038,9 +1988,7 @@
       <c r="F40" s="10">
         <v>5000</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
@@ -2059,9 +2007,7 @@
         <v>70</v>
       </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
@@ -2082,9 +2028,7 @@
       <c r="F42" s="10">
         <v>5000</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
@@ -2103,9 +2047,7 @@
         <v>70</v>
       </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
@@ -2126,9 +2068,7 @@
       <c r="F44" s="10">
         <v>5000</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
@@ -2147,9 +2087,7 @@
         <v>85</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
@@ -2170,9 +2108,7 @@
       <c r="F46" s="10">
         <v>3000</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
@@ -2191,9 +2127,7 @@
         <v>70</v>
       </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
@@ -2214,9 +2148,7 @@
       <c r="F48" s="8">
         <v>3000</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
@@ -2235,9 +2167,7 @@
         <v>92</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
@@ -2258,9 +2188,7 @@
       <c r="F50" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
@@ -2281,9 +2209,7 @@
       <c r="F51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
@@ -2302,9 +2228,7 @@
         <v>70</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
@@ -2325,9 +2249,7 @@
       <c r="F53" s="8">
         <v>3000</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
@@ -2346,9 +2268,7 @@
         <v>70</v>
       </c>
       <c r="F54" s="8"/>
-      <c r="G54" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
@@ -2367,9 +2287,7 @@
         <v>70</v>
       </c>
       <c r="F55" s="10"/>
-      <c r="G55" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
@@ -2388,9 +2306,7 @@
         <v>174</v>
       </c>
       <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
@@ -2409,9 +2325,7 @@
         <v>70</v>
       </c>
       <c r="F57" s="10"/>
-      <c r="G57" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
@@ -2432,9 +2346,7 @@
       <c r="F58" s="8">
         <v>3000</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
@@ -2453,9 +2365,7 @@
         <v>70</v>
       </c>
       <c r="F59" s="10"/>
-      <c r="G59" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
@@ -2474,9 +2384,7 @@
         <v>70</v>
       </c>
       <c r="F60" s="10"/>
-      <c r="G60" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
@@ -2497,9 +2405,7 @@
       <c r="F61" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
@@ -2520,9 +2426,7 @@
       <c r="F62" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
@@ -2543,9 +2447,7 @@
       <c r="F63" s="13">
         <v>43551</v>
       </c>
-      <c r="G63" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
@@ -2566,9 +2468,7 @@
       <c r="F64" s="13">
         <v>45743</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
@@ -2587,9 +2487,7 @@
         <v>70</v>
       </c>
       <c r="F65" s="10"/>
-      <c r="G65" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
@@ -2629,9 +2527,7 @@
         <v>70</v>
       </c>
       <c r="F67" s="10"/>
-      <c r="G67" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
@@ -2650,9 +2546,7 @@
         <v>70</v>
       </c>
       <c r="F68" s="10"/>
-      <c r="G68" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
@@ -2673,9 +2567,7 @@
       <c r="F69" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
@@ -2694,9 +2586,7 @@
         <v>70</v>
       </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
@@ -2717,9 +2607,7 @@
       <c r="F71" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
@@ -2738,9 +2626,7 @@
         <v>70</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
@@ -2761,9 +2647,7 @@
       <c r="F73" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
@@ -2782,9 +2666,7 @@
         <v>70</v>
       </c>
       <c r="F74" s="10"/>
-      <c r="G74" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
@@ -2805,9 +2687,7 @@
       <c r="F75" s="10">
         <v>5000</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
@@ -2826,9 +2706,7 @@
         <v>70</v>
       </c>
       <c r="F76" s="10"/>
-      <c r="G76" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
@@ -2849,9 +2727,7 @@
       <c r="F77" s="14">
         <v>10000</v>
       </c>
-      <c r="G77" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="15" t="s">
@@ -2870,9 +2746,7 @@
         <v>70</v>
       </c>
       <c r="F78" s="16"/>
-      <c r="G78" s="16" t="s">
-        <v>193</v>
-      </c>
+      <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
@@ -2891,9 +2765,7 @@
         <v>70</v>
       </c>
       <c r="F79" s="10"/>
-      <c r="G79" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3"/>
@@ -2908,26 +2780,26 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793A77-4CB9-44FE-853A-5596922718C4}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793A77-4CB9-44FE-853A-5596922718C4}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.25" collapsed="true"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2990,7 +2862,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3007,7 +2879,7 @@
         <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3024,7 +2896,7 @@
         <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3041,7 +2913,7 @@
         <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3050,13 +2922,13 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0813C85-E9CB-4B87-91F1-B57B26429AF3}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0813C85-E9CB-4B87-91F1-B57B26429AF3}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -3064,12 +2936,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +2975,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="str">
-        <f ref="D3:D15" si="0" t="shared">_xlfn.CONCAT(A3,B3)</f>
+        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT(A3,B3)</f>
         <v>LinkClick</v>
       </c>
     </row>
@@ -3115,7 +2987,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>ButtonClick</v>
       </c>
     </row>
@@ -3127,7 +2999,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>DropdownSelect</v>
       </c>
     </row>
@@ -3139,7 +3011,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>Text/LabelRead</v>
       </c>
     </row>
@@ -3151,7 +3023,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>RadioSelect</v>
       </c>
     </row>
@@ -3163,7 +3035,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>CheckBoxCheck</v>
       </c>
     </row>
@@ -3175,7 +3047,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>CheckBoxUncheck</v>
       </c>
     </row>
@@ -3187,7 +3059,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>ImagebuttonClick</v>
       </c>
     </row>
@@ -3196,7 +3068,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>Table</v>
       </c>
     </row>
@@ -3208,7 +3080,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>BrowserOpen</v>
       </c>
     </row>
@@ -3220,7 +3092,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>BrowserClose</v>
       </c>
     </row>
@@ -3232,7 +3104,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>BrowserNavigate</v>
       </c>
     </row>
@@ -3244,11 +3116,11 @@
         <v>32</v>
       </c>
       <c r="D15" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>ElementPropertyCheck</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestDataAndResults/SophieAutomation.xlsx
+++ b/TestDataAndResults/SophieAutomation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756726C-8FCC-4B16-BD4D-355CD0B4A303}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6756726C-8FCC-4B16-BD4D-355CD0B4A303}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="DriverSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="CSVChkPostDefineBrain" sheetId="4" r:id="rId2"/>
-    <sheet name="BatchDecisionOutputValidations" sheetId="5" r:id="rId3"/>
-    <sheet name="Keywords" sheetId="3" r:id="rId4"/>
+    <sheet name="DriverSheet" r:id="rId1" sheetId="1"/>
+    <sheet name="CSVChkPostDefineBrain" r:id="rId2" sheetId="4"/>
+    <sheet name="BatchDecisionOutputValidations" r:id="rId3" sheetId="5"/>
+    <sheet name="Keywords" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="197">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -617,12 +617,16 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -776,60 +780,60 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -846,10 +850,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -884,7 +888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -919,7 +923,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1013,21 +1017,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1044,7 +1048,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1096,15 +1100,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -1112,15 +1116,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="70.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="70.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="1" s="6" spans="1:5">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
@@ -1129,7 +1133,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="2" s="6" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>187</v>
       </c>
@@ -1138,14 +1142,14 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="3" s="6" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="4" s="2" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -1197,13 +1201,13 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
-  <dimension ref="A1:G80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G31"/>
@@ -1211,13 +1215,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.86328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1289,7 +1293,9 @@
         <v>69</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -2780,14 +2786,14 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793A77-4CB9-44FE-853A-5596922718C4}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793A77-4CB9-44FE-853A-5596922718C4}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E8"/>
@@ -2795,11 +2801,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2922,13 +2928,13 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0813C85-E9CB-4B87-91F1-B57B26429AF3}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0813C85-E9CB-4B87-91F1-B57B26429AF3}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -2936,12 +2942,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row customFormat="1" r="1" s="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT(A3,B3)</f>
+        <f ref="D3:D15" si="0" t="shared">_xlfn.CONCAT(A3,B3)</f>
         <v>LinkClick</v>
       </c>
     </row>
@@ -2987,7 +2993,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>ButtonClick</v>
       </c>
     </row>
@@ -2999,7 +3005,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>DropdownSelect</v>
       </c>
     </row>
@@ -3011,7 +3017,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>Text/LabelRead</v>
       </c>
     </row>
@@ -3023,7 +3029,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>RadioSelect</v>
       </c>
     </row>
@@ -3035,7 +3041,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>CheckBoxCheck</v>
       </c>
     </row>
@@ -3047,7 +3053,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>CheckBoxUncheck</v>
       </c>
     </row>
@@ -3059,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>ImagebuttonClick</v>
       </c>
     </row>
@@ -3068,7 +3074,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>Table</v>
       </c>
     </row>
@@ -3080,7 +3086,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>BrowserOpen</v>
       </c>
     </row>
@@ -3092,7 +3098,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>BrowserClose</v>
       </c>
     </row>
@@ -3104,7 +3110,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>BrowserNavigate</v>
       </c>
     </row>
@@ -3116,11 +3122,11 @@
         <v>32</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>ElementPropertyCheck</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TestDataAndResults/SophieAutomation.xlsx
+++ b/TestDataAndResults/SophieAutomation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="197">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/TestDataAndResults/SophieAutomation.xlsx
+++ b/TestDataAndResults/SophieAutomation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{6756726C-8FCC-4B16-BD4D-355CD0B4A303}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39794AA2-C33D-4EE3-89AF-0205132A290E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DriverSheet" r:id="rId1" sheetId="1"/>
-    <sheet name="CSVChkPostDefineBrain" r:id="rId2" sheetId="4"/>
-    <sheet name="BatchDecisionOutputValidations" r:id="rId3" sheetId="5"/>
-    <sheet name="Keywords" r:id="rId4" sheetId="3"/>
+    <sheet name="DriverSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="CSVChkPostDefineBrain" sheetId="4" r:id="rId2"/>
+    <sheet name="BatchDecisionOutputValidations" sheetId="5" r:id="rId3"/>
+    <sheet name="Keywords" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -607,9 +607,6 @@
     <t>Choose obcc template</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -617,16 +614,12 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -780,60 +773,60 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -850,10 +843,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -888,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -923,7 +916,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1017,21 +1010,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1048,7 +1041,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1100,15 +1093,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -1116,15 +1109,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="23.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="70.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="70.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="14.25" r="1" s="6" spans="1:5">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="14.25">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
@@ -1133,7 +1126,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row customFormat="1" ht="14.25" r="2" s="6" spans="1:5">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="14.25">
       <c r="A2" s="18" t="s">
         <v>187</v>
       </c>
@@ -1142,19 +1135,19 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row customFormat="1" ht="14.25" r="3" s="6" spans="1:5">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="14.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row customFormat="1" ht="14.25" r="4" s="2" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -1171,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>58</v>
@@ -1186,13 +1179,13 @@
         <v>138</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -1201,27 +1194,27 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
-  <dimension ref="A1:H80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G31"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.86328125" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1293,9 +1286,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -1855,9 +1846,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
@@ -2786,26 +2775,26 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793A77-4CB9-44FE-853A-5596922718C4}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793A77-4CB9-44FE-853A-5596922718C4}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2867,9 +2856,6 @@
       <c r="D5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E5" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
@@ -2884,9 +2870,6 @@
       <c r="D6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E6" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
@@ -2901,9 +2884,6 @@
       <c r="D7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E7" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
@@ -2917,9 +2897,6 @@
       </c>
       <c r="D8" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2928,13 +2905,13 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0813C85-E9CB-4B87-91F1-B57B26429AF3}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0813C85-E9CB-4B87-91F1-B57B26429AF3}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -2942,12 +2919,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="str">
-        <f ref="D3:D15" si="0" t="shared">_xlfn.CONCAT(A3,B3)</f>
+        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT(A3,B3)</f>
         <v>LinkClick</v>
       </c>
     </row>
@@ -2993,7 +2970,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>ButtonClick</v>
       </c>
     </row>
@@ -3005,7 +2982,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>DropdownSelect</v>
       </c>
     </row>
@@ -3017,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>Text/LabelRead</v>
       </c>
     </row>
@@ -3029,7 +3006,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>RadioSelect</v>
       </c>
     </row>
@@ -3041,7 +3018,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>CheckBoxCheck</v>
       </c>
     </row>
@@ -3053,7 +3030,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>CheckBoxUncheck</v>
       </c>
     </row>
@@ -3065,7 +3042,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>ImagebuttonClick</v>
       </c>
     </row>
@@ -3074,7 +3051,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>Table</v>
       </c>
     </row>
@@ -3086,7 +3063,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>BrowserOpen</v>
       </c>
     </row>
@@ -3098,7 +3075,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>BrowserClose</v>
       </c>
     </row>
@@ -3110,7 +3087,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>BrowserNavigate</v>
       </c>
     </row>
@@ -3122,11 +3099,11 @@
         <v>32</v>
       </c>
       <c r="D15" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>ElementPropertyCheck</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestDataAndResults/SophieAutomation.xlsx
+++ b/TestDataAndResults/SophieAutomation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39794AA2-C33D-4EE3-89AF-0205132A290E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{703F7989-154A-4E44-8E3B-49E9ACF410E3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="DriverSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="CSVChkPostDefineBrain" sheetId="4" r:id="rId2"/>
-    <sheet name="BatchDecisionOutputValidations" sheetId="5" r:id="rId3"/>
-    <sheet name="Keywords" sheetId="3" r:id="rId4"/>
+    <sheet name="DriverSheet" r:id="rId1" sheetId="1"/>
+    <sheet name="CSVChkPostDefineBrain" r:id="rId2" sheetId="4"/>
+    <sheet name="BatchDecisionOutputValidations" r:id="rId3" sheetId="5"/>
+    <sheet name="Keywords" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="197">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -614,12 +614,19 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -773,60 +780,60 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -843,10 +850,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -881,7 +888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -916,7 +923,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1010,21 +1017,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1041,7 +1048,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1093,15 +1100,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -1109,15 +1116,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="70.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="70.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="1" s="6" spans="1:5">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
@@ -1126,7 +1133,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="2" s="6" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>187</v>
       </c>
@@ -1135,14 +1142,14 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="3" s="6" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="4" s="2" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -1194,27 +1201,27 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
-  <dimension ref="A1:G80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67:G77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.86328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1286,7 +1293,9 @@
         <v>69</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -1307,7 +1316,9 @@
       <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
@@ -1328,7 +1339,9 @@
       <c r="F7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
@@ -1347,7 +1360,9 @@
         <v>70</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -1368,7 +1383,9 @@
       <c r="F9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
@@ -1387,7 +1404,9 @@
         <v>70</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
@@ -1408,7 +1427,9 @@
       <c r="F11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
@@ -1427,7 +1448,9 @@
         <v>85</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
@@ -1448,7 +1471,9 @@
       <c r="F13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
@@ -1467,7 +1492,9 @@
         <v>70</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
@@ -1488,7 +1515,9 @@
       <c r="F15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
@@ -1507,7 +1536,9 @@
         <v>92</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
@@ -1528,7 +1559,9 @@
       <c r="F17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
@@ -1549,7 +1582,9 @@
       <c r="F18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
@@ -1568,7 +1603,9 @@
         <v>70</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
@@ -1589,7 +1626,9 @@
       <c r="F20" s="8">
         <v>3000</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
@@ -1608,7 +1647,9 @@
         <v>70</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
@@ -1629,7 +1670,9 @@
       <c r="F22" s="8">
         <v>3000</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
@@ -1648,7 +1691,9 @@
         <v>70</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
@@ -1669,7 +1714,9 @@
       <c r="F24" s="8">
         <v>3000</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
@@ -1688,7 +1735,9 @@
         <v>70</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
@@ -1709,7 +1758,9 @@
       <c r="F26" s="8">
         <v>3000</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
@@ -1728,7 +1779,9 @@
         <v>70</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
@@ -1747,7 +1800,9 @@
         <v>70</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
@@ -1768,7 +1823,9 @@
       <c r="F29" s="8">
         <v>20000</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
@@ -1787,7 +1844,9 @@
         <v>70</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
@@ -1808,7 +1867,9 @@
       <c r="F31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
@@ -1827,7 +1888,9 @@
         <v>70</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
@@ -1846,7 +1909,9 @@
         <v>70</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
@@ -1865,7 +1930,9 @@
         <v>104</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
@@ -1884,7 +1951,9 @@
         <v>70</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
@@ -1905,7 +1974,9 @@
       <c r="F36" s="4">
         <v>30000</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
@@ -1924,7 +1995,9 @@
         <v>125</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
@@ -1943,7 +2016,9 @@
         <v>69</v>
       </c>
       <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
@@ -1962,7 +2037,9 @@
         <v>91</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
@@ -1983,7 +2060,9 @@
       <c r="F40" s="10">
         <v>5000</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
@@ -2002,7 +2081,9 @@
         <v>70</v>
       </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
@@ -2023,7 +2104,9 @@
       <c r="F42" s="10">
         <v>5000</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
@@ -2042,7 +2125,9 @@
         <v>70</v>
       </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
@@ -2063,7 +2148,9 @@
       <c r="F44" s="10">
         <v>5000</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
@@ -2082,7 +2169,9 @@
         <v>85</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
@@ -2103,7 +2192,9 @@
       <c r="F46" s="10">
         <v>3000</v>
       </c>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
@@ -2122,7 +2213,9 @@
         <v>70</v>
       </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
@@ -2143,7 +2236,9 @@
       <c r="F48" s="8">
         <v>3000</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
@@ -2162,7 +2257,9 @@
         <v>92</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
@@ -2183,7 +2280,9 @@
       <c r="F50" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
@@ -2204,7 +2303,9 @@
       <c r="F51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
@@ -2223,7 +2324,9 @@
         <v>70</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
@@ -2244,7 +2347,9 @@
       <c r="F53" s="8">
         <v>3000</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
@@ -2263,7 +2368,9 @@
         <v>70</v>
       </c>
       <c r="F54" s="8"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
@@ -2282,7 +2389,9 @@
         <v>70</v>
       </c>
       <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
@@ -2301,7 +2410,9 @@
         <v>174</v>
       </c>
       <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
@@ -2320,7 +2431,9 @@
         <v>70</v>
       </c>
       <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
@@ -2341,7 +2454,9 @@
       <c r="F58" s="8">
         <v>3000</v>
       </c>
-      <c r="G58" s="10"/>
+      <c r="G58" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
@@ -2360,7 +2475,9 @@
         <v>70</v>
       </c>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="G59" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
@@ -2379,7 +2496,9 @@
         <v>70</v>
       </c>
       <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="G60" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
@@ -2400,7 +2519,9 @@
       <c r="F61" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G61" s="10"/>
+      <c r="G61" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
@@ -2421,7 +2542,9 @@
       <c r="F62" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G62" s="10"/>
+      <c r="G62" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
@@ -2442,7 +2565,9 @@
       <c r="F63" s="13">
         <v>43551</v>
       </c>
-      <c r="G63" s="10"/>
+      <c r="G63" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
@@ -2463,7 +2588,9 @@
       <c r="F64" s="13">
         <v>45743</v>
       </c>
-      <c r="G64" s="10"/>
+      <c r="G64" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
@@ -2482,7 +2609,9 @@
         <v>70</v>
       </c>
       <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="G65" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
@@ -2522,7 +2651,9 @@
         <v>70</v>
       </c>
       <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
@@ -2541,7 +2672,9 @@
         <v>70</v>
       </c>
       <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
@@ -2562,7 +2695,9 @@
       <c r="F69" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
@@ -2581,7 +2716,9 @@
         <v>70</v>
       </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="10"/>
+      <c r="G70" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
@@ -2602,7 +2739,9 @@
       <c r="F71" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G71" s="10"/>
+      <c r="G71" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
@@ -2621,7 +2760,9 @@
         <v>70</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="10"/>
+      <c r="G72" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
@@ -2642,7 +2783,9 @@
       <c r="F73" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G73" s="10"/>
+      <c r="G73" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
@@ -2661,7 +2804,9 @@
         <v>70</v>
       </c>
       <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="G74" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
@@ -2682,7 +2827,9 @@
       <c r="F75" s="10">
         <v>5000</v>
       </c>
-      <c r="G75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
@@ -2701,7 +2848,9 @@
         <v>70</v>
       </c>
       <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="G76" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
@@ -2722,7 +2871,9 @@
       <c r="F77" s="14">
         <v>10000</v>
       </c>
-      <c r="G77" s="10"/>
+      <c r="G77" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="15" t="s">
@@ -2741,7 +2892,9 @@
         <v>70</v>
       </c>
       <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
@@ -2760,7 +2913,9 @@
         <v>70</v>
       </c>
       <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="G79" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3"/>
@@ -2775,26 +2930,26 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793A77-4CB9-44FE-853A-5596922718C4}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793A77-4CB9-44FE-853A-5596922718C4}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2856,6 +3011,9 @@
       <c r="D5" s="9" t="s">
         <v>121</v>
       </c>
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
@@ -2870,6 +3028,9 @@
       <c r="D6" s="9" t="s">
         <v>121</v>
       </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
@@ -2884,6 +3045,9 @@
       <c r="D7" s="9" t="s">
         <v>121</v>
       </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
@@ -2897,6 +3061,9 @@
       </c>
       <c r="D8" s="9" t="s">
         <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2905,13 +3072,13 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0813C85-E9CB-4B87-91F1-B57B26429AF3}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0813C85-E9CB-4B87-91F1-B57B26429AF3}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -2919,12 +3086,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row customFormat="1" r="1" s="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2958,7 +3125,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT(A3,B3)</f>
+        <f ref="D3:D15" si="0" t="shared">_xlfn.CONCAT(A3,B3)</f>
         <v>LinkClick</v>
       </c>
     </row>
@@ -2970,7 +3137,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>ButtonClick</v>
       </c>
     </row>
@@ -2982,7 +3149,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>DropdownSelect</v>
       </c>
     </row>
@@ -2994,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>Text/LabelRead</v>
       </c>
     </row>
@@ -3006,7 +3173,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>RadioSelect</v>
       </c>
     </row>
@@ -3018,7 +3185,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>CheckBoxCheck</v>
       </c>
     </row>
@@ -3030,7 +3197,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>CheckBoxUncheck</v>
       </c>
     </row>
@@ -3042,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>ImagebuttonClick</v>
       </c>
     </row>
@@ -3051,7 +3218,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>Table</v>
       </c>
     </row>
@@ -3063,7 +3230,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>BrowserOpen</v>
       </c>
     </row>
@@ -3075,7 +3242,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>BrowserClose</v>
       </c>
     </row>
@@ -3087,7 +3254,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>BrowserNavigate</v>
       </c>
     </row>
@@ -3099,11 +3266,11 @@
         <v>32</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>ElementPropertyCheck</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>